--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_errors_first_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_errors_first_since_2022.xlsx
@@ -690,6 +690,9 @@
       <c r="J7">
         <v>0.4342244890076376</v>
       </c>
+      <c r="K7">
+        <v>0.1683237681281231</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -719,6 +722,9 @@
       <c r="I8">
         <v>0.4381923865207467</v>
       </c>
+      <c r="J8">
+        <v>0.1722916656412322</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -745,6 +751,9 @@
       <c r="H9">
         <v>0.5738324766909881</v>
       </c>
+      <c r="I9">
+        <v>0.3079317558114735</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -768,6 +777,9 @@
       <c r="G10">
         <v>0.3330262948353234</v>
       </c>
+      <c r="H10">
+        <v>0.06712557395580883</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -788,6 +800,9 @@
       <c r="F11">
         <v>0.287695079583227</v>
       </c>
+      <c r="G11">
+        <v>0.02179435870371246</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -805,6 +820,9 @@
       <c r="E12">
         <v>0.2208336576471732</v>
       </c>
+      <c r="F12">
+        <v>-0.04506706323234141</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -819,6 +837,9 @@
       <c r="D13">
         <v>0.1912474552904566</v>
       </c>
+      <c r="E13">
+        <v>-0.07465326558905801</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -830,6 +851,9 @@
       <c r="C14">
         <v>0.1730967985608157</v>
       </c>
+      <c r="D14">
+        <v>-0.0928039223186989</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -838,10 +862,16 @@
       <c r="B15">
         <v>0.1550649743121164</v>
       </c>
+      <c r="C15">
+        <v>-0.1108357465673982</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.1624199859130616</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_errors_first_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_errors_first_since_2022.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.7322633397437844</v>
+        <v>0.2879090979994584</v>
       </c>
       <c r="C2">
-        <v>0.2879090979994584</v>
+        <v>-1.425880358899853</v>
       </c>
       <c r="D2">
-        <v>-1.425880358899853</v>
+        <v>1.402475014699119</v>
       </c>
       <c r="E2">
-        <v>1.402475014699119</v>
+        <v>-0.8328575851670005</v>
       </c>
       <c r="F2">
-        <v>-0.8328575851670005</v>
+        <v>0.5184774727506619</v>
       </c>
       <c r="G2">
-        <v>0.5184774727506619</v>
+        <v>-0.1029604570662399</v>
       </c>
       <c r="H2">
-        <v>-0.1029604570662399</v>
+        <v>0.3976002401245912</v>
       </c>
       <c r="I2">
-        <v>0.3976002401245912</v>
+        <v>-0.2703078322215502</v>
       </c>
       <c r="J2">
-        <v>-0.2703078322215502</v>
+        <v>0.1586931430164528</v>
       </c>
       <c r="K2">
-        <v>0.1586931430164528</v>
+        <v>0.2163646915946629</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2703549766394939</v>
+        <v>-1.443434480259818</v>
       </c>
       <c r="C3">
-        <v>-1.443434480259818</v>
+        <v>1.384920893339154</v>
       </c>
       <c r="D3">
-        <v>1.384920893339154</v>
+        <v>-0.8504117065269649</v>
       </c>
       <c r="E3">
-        <v>-0.8504117065269649</v>
+        <v>0.5009233513906975</v>
       </c>
       <c r="F3">
-        <v>0.5009233513906975</v>
+        <v>-0.1205145784262043</v>
       </c>
       <c r="G3">
-        <v>-0.1205145784262043</v>
+        <v>0.3800461187646267</v>
       </c>
       <c r="H3">
-        <v>0.3800461187646267</v>
+        <v>-0.2878619535815147</v>
       </c>
       <c r="I3">
-        <v>-0.2878619535815147</v>
+        <v>0.1411390216564884</v>
       </c>
       <c r="J3">
-        <v>0.1411390216564884</v>
+        <v>0.1988105702346985</v>
       </c>
       <c r="K3">
-        <v>0.1988105702346985</v>
+        <v>0.322776941072984</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1.355327161308811</v>
+        <v>1.473028212290161</v>
       </c>
       <c r="C4">
-        <v>1.473028212290161</v>
+        <v>-0.7623043875759586</v>
       </c>
       <c r="D4">
-        <v>-0.7623043875759586</v>
+        <v>0.5890306703417038</v>
       </c>
       <c r="E4">
-        <v>0.5890306703417038</v>
+        <v>-0.0324072594751981</v>
       </c>
       <c r="F4">
-        <v>-0.0324072594751981</v>
+        <v>0.4681534377156329</v>
       </c>
       <c r="G4">
-        <v>0.4681534377156329</v>
+        <v>-0.1997546346305085</v>
       </c>
       <c r="H4">
-        <v>-0.1997546346305085</v>
+        <v>0.2292463406074946</v>
       </c>
       <c r="I4">
-        <v>0.2292463406074946</v>
+        <v>0.2869178891857047</v>
       </c>
       <c r="J4">
-        <v>0.2869178891857047</v>
+        <v>0.4108842600239903</v>
       </c>
       <c r="K4">
-        <v>0.4108842600239903</v>
+        <v>-0.4825338632108016</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1.651602845777944</v>
+        <v>-0.5837297540881751</v>
       </c>
       <c r="C5">
-        <v>-0.5837297540881751</v>
+        <v>0.7676053038294873</v>
       </c>
       <c r="D5">
-        <v>0.7676053038294873</v>
+        <v>0.1461673740125855</v>
       </c>
       <c r="E5">
-        <v>0.1461673740125855</v>
+        <v>0.6467280712034165</v>
       </c>
       <c r="F5">
-        <v>0.6467280712034165</v>
+        <v>-0.02118000114272489</v>
       </c>
       <c r="G5">
-        <v>-0.02118000114272489</v>
+        <v>0.4078209740952782</v>
       </c>
       <c r="H5">
-        <v>0.4078209740952782</v>
+        <v>0.4654925226734883</v>
       </c>
       <c r="I5">
-        <v>0.4654925226734883</v>
+        <v>0.5894588935117738</v>
       </c>
       <c r="J5">
-        <v>0.5894588935117738</v>
+        <v>-0.303959229723018</v>
       </c>
       <c r="K5">
-        <v>-0.303959229723018</v>
+        <v>0.4661714972207444</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.3282974736644749</v>
+        <v>1.679632531582137</v>
       </c>
       <c r="C6">
-        <v>1.679632531582137</v>
+        <v>1.058194601765235</v>
       </c>
       <c r="D6">
-        <v>1.058194601765235</v>
+        <v>1.558755298956066</v>
       </c>
       <c r="E6">
-        <v>1.558755298956066</v>
+        <v>0.8908472266099251</v>
       </c>
       <c r="F6">
-        <v>0.8908472266099251</v>
+        <v>1.319848201847928</v>
       </c>
       <c r="G6">
-        <v>1.319848201847928</v>
+        <v>1.377519750426138</v>
       </c>
       <c r="H6">
-        <v>1.377519750426138</v>
+        <v>1.501486121264424</v>
       </c>
       <c r="I6">
-        <v>1.501486121264424</v>
+        <v>0.608067998029632</v>
       </c>
       <c r="J6">
-        <v>0.608067998029632</v>
+        <v>1.378198724973394</v>
       </c>
       <c r="K6">
-        <v>1.378198724973394</v>
+        <v>1.11229800409388</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,33 +664,30 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.7356582956163805</v>
+        <v>0.1142203657994787</v>
       </c>
       <c r="C7">
-        <v>0.1142203657994787</v>
+        <v>0.6147810629903097</v>
       </c>
       <c r="D7">
-        <v>0.6147810629903097</v>
+        <v>-0.0531270093558317</v>
       </c>
       <c r="E7">
-        <v>-0.0531270093558317</v>
+        <v>0.3758739658821714</v>
       </c>
       <c r="F7">
-        <v>0.3758739658821714</v>
+        <v>0.4335455144603815</v>
       </c>
       <c r="G7">
-        <v>0.4335455144603815</v>
+        <v>0.557511885298667</v>
       </c>
       <c r="H7">
-        <v>0.557511885298667</v>
+        <v>-0.3359062379361248</v>
       </c>
       <c r="I7">
-        <v>-0.3359062379361248</v>
+        <v>0.4342244890076376</v>
       </c>
       <c r="J7">
-        <v>0.4342244890076376</v>
-      </c>
-      <c r="K7">
         <v>0.1683237681281231</v>
       </c>
     </row>
@@ -699,30 +696,27 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.1181882633125878</v>
+        <v>0.6187489605034189</v>
       </c>
       <c r="C8">
-        <v>0.6187489605034189</v>
+        <v>-0.04915911184272259</v>
       </c>
       <c r="D8">
-        <v>-0.04915911184272259</v>
+        <v>0.3798418633952805</v>
       </c>
       <c r="E8">
-        <v>0.3798418633952805</v>
+        <v>0.4375134119734906</v>
       </c>
       <c r="F8">
-        <v>0.4375134119734906</v>
+        <v>0.5614797828117761</v>
       </c>
       <c r="G8">
-        <v>0.5614797828117761</v>
+        <v>-0.3319383404230157</v>
       </c>
       <c r="H8">
-        <v>-0.3319383404230157</v>
+        <v>0.4381923865207467</v>
       </c>
       <c r="I8">
-        <v>0.4381923865207467</v>
-      </c>
-      <c r="J8">
         <v>0.1722916656412322</v>
       </c>
     </row>
@@ -731,27 +725,24 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.7543890506736601</v>
+        <v>0.08648097832751878</v>
       </c>
       <c r="C9">
-        <v>0.08648097832751878</v>
+        <v>0.5154819535655218</v>
       </c>
       <c r="D9">
-        <v>0.5154819535655218</v>
+        <v>0.573153502143732</v>
       </c>
       <c r="E9">
-        <v>0.573153502143732</v>
+        <v>0.6971198729820175</v>
       </c>
       <c r="F9">
-        <v>0.6971198729820175</v>
+        <v>-0.1962982502527744</v>
       </c>
       <c r="G9">
-        <v>-0.1962982502527744</v>
+        <v>0.5738324766909881</v>
       </c>
       <c r="H9">
-        <v>0.5738324766909881</v>
-      </c>
-      <c r="I9">
         <v>0.3079317558114735</v>
       </c>
     </row>
@@ -760,24 +751,21 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.1543252035281459</v>
+        <v>0.2746757717098572</v>
       </c>
       <c r="C10">
-        <v>0.2746757717098572</v>
+        <v>0.3323473202880673</v>
       </c>
       <c r="D10">
-        <v>0.3323473202880673</v>
+        <v>0.4563136911263528</v>
       </c>
       <c r="E10">
-        <v>0.4563136911263528</v>
+        <v>-0.4371044321084391</v>
       </c>
       <c r="F10">
-        <v>-0.4371044321084391</v>
+        <v>0.3330262948353234</v>
       </c>
       <c r="G10">
-        <v>0.3330262948353234</v>
-      </c>
-      <c r="H10">
         <v>0.06712557395580883</v>
       </c>
     </row>
@@ -786,21 +774,18 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.2293445564577608</v>
+        <v>0.2870161050359709</v>
       </c>
       <c r="C11">
-        <v>0.2870161050359709</v>
+        <v>0.4109824758742565</v>
       </c>
       <c r="D11">
-        <v>0.4109824758742565</v>
+        <v>-0.4824356473605354</v>
       </c>
       <c r="E11">
-        <v>-0.4824356473605354</v>
+        <v>0.287695079583227</v>
       </c>
       <c r="F11">
-        <v>0.287695079583227</v>
-      </c>
-      <c r="G11">
         <v>0.02179435870371246</v>
       </c>
     </row>
@@ -809,18 +794,15 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.2201546830999171</v>
+        <v>0.3441210539382026</v>
       </c>
       <c r="C12">
-        <v>0.3441210539382026</v>
+        <v>-0.5492970692965893</v>
       </c>
       <c r="D12">
-        <v>-0.5492970692965893</v>
+        <v>0.2208336576471732</v>
       </c>
       <c r="E12">
-        <v>0.2208336576471732</v>
-      </c>
-      <c r="F12">
         <v>-0.04506706323234141</v>
       </c>
     </row>
@@ -829,15 +811,12 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.314534851581486</v>
+        <v>-0.5788832716533059</v>
       </c>
       <c r="C13">
-        <v>-0.5788832716533059</v>
+        <v>0.1912474552904566</v>
       </c>
       <c r="D13">
-        <v>0.1912474552904566</v>
-      </c>
-      <c r="E13">
         <v>-0.07465326558905801</v>
       </c>
     </row>
@@ -846,12 +825,9 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.5970339283829468</v>
+        <v>0.1730967985608157</v>
       </c>
       <c r="C14">
-        <v>0.1730967985608157</v>
-      </c>
-      <c r="D14">
         <v>-0.0928039223186989</v>
       </c>
     </row>
@@ -860,18 +836,12 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1550649743121164</v>
-      </c>
-      <c r="C15">
         <v>-0.1108357465673982</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B16">
-        <v>-0.1624199859130616</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_errors_first_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_errors_first_since_2022.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.7322633397437844</v>
+      </c>
+      <c r="C2">
         <v>0.2879090979994584</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-1.425880358899853</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.402475014699119</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-0.8328575851670005</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.5184774727506619</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.1029604570662399</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.3976002401245912</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.2703078322215502</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.1586931430164528</v>
-      </c>
-      <c r="K2">
-        <v>0.2163646915946629</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>0.2703549766394939</v>
+      </c>
+      <c r="C3">
         <v>-1.443434480259818</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.384920893339154</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.8504117065269649</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.5009233513906975</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.1205145784262043</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.3800461187646267</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.2878619535815147</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1411390216564884</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.1988105702346985</v>
-      </c>
-      <c r="K3">
-        <v>0.322776941072984</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-1.355327161308811</v>
+      </c>
+      <c r="C4">
         <v>1.473028212290161</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.7623043875759586</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.5890306703417038</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-0.0324072594751981</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.4681534377156329</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.1997546346305085</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.2292463406074946</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.2869178891857047</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.4108842600239903</v>
-      </c>
-      <c r="K4">
-        <v>-0.4825338632108016</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>1.651602845777944</v>
+      </c>
+      <c r="C5">
         <v>-0.5837297540881751</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.7676053038294873</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.1461673740125855</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.6467280712034165</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.02118000114272489</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.4078209740952782</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.4654925226734883</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.5894588935117738</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.303959229723018</v>
-      </c>
-      <c r="K5">
-        <v>0.4661714972207444</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.3282974736644749</v>
+      </c>
+      <c r="C6">
         <v>1.679632531582137</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.058194601765235</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.558755298956066</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.8908472266099251</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.319848201847928</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.377519750426138</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.501486121264424</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.608067998029632</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.378198724973394</v>
-      </c>
-      <c r="K6">
-        <v>1.11229800409388</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,30 +664,33 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>0.7356582956163805</v>
+      </c>
+      <c r="C7">
         <v>0.1142203657994787</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.6147810629903097</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.0531270093558317</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3758739658821714</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.4335455144603815</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.557511885298667</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.3359062379361248</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.4342244890076376</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.1683237681281231</v>
       </c>
     </row>
@@ -696,27 +699,30 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.1181882633125878</v>
+      </c>
+      <c r="C8">
         <v>0.6187489605034189</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-0.04915911184272259</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.3798418633952805</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.4375134119734906</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.5614797828117761</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.3319383404230157</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.4381923865207467</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.1722916656412322</v>
       </c>
     </row>
@@ -725,24 +731,27 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.7543890506736601</v>
+      </c>
+      <c r="C9">
         <v>0.08648097832751878</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.5154819535655218</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.573153502143732</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.6971198729820175</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.1962982502527744</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.5738324766909881</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.3079317558114735</v>
       </c>
     </row>
@@ -751,21 +760,24 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.1543252035281459</v>
+      </c>
+      <c r="C10">
         <v>0.2746757717098572</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.3323473202880673</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.4563136911263528</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.4371044321084391</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.3330262948353234</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.06712557395580883</v>
       </c>
     </row>
@@ -774,18 +786,21 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.2293445564577608</v>
+      </c>
+      <c r="C11">
         <v>0.2870161050359709</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.4109824758742565</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.4824356473605354</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.287695079583227</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.02179435870371246</v>
       </c>
     </row>
@@ -794,15 +809,18 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.2201546830999171</v>
+      </c>
+      <c r="C12">
         <v>0.3441210539382026</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.5492970692965893</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2208336576471732</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.04506706323234141</v>
       </c>
     </row>
@@ -811,12 +829,15 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.314534851581486</v>
+      </c>
+      <c r="C13">
         <v>-0.5788832716533059</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.1912474552904566</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.07465326558905801</v>
       </c>
     </row>
@@ -825,9 +846,12 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.5970339283829468</v>
+      </c>
+      <c r="C14">
         <v>0.1730967985608157</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.0928039223186989</v>
       </c>
     </row>
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.1550649743121164</v>
+      </c>
+      <c r="C15">
         <v>-0.1108357465673982</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.1624199859130616</v>
       </c>
     </row>
   </sheetData>
